--- a/database/industries/bargh/bemoto/eps.xlsx
+++ b/database/industries/bargh/bemoto/eps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -34,6 +34,9 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1401</t>
+  </si>
+  <si>
     <t>1400</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>1394</t>
   </si>
   <si>
-    <t>1393</t>
+    <t>1401/09/19</t>
   </si>
   <si>
     <t>1400/09/21</t>
@@ -453,16 +456,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>8258</v>
+        <v>307</v>
       </c>
       <c r="D2">
-        <v>7500</v>
+        <v>280</v>
       </c>
       <c r="E2">
-        <v>680400</v>
+        <v>14288400</v>
       </c>
       <c r="F2">
-        <v>680400</v>
+        <v>14288400</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,16 +476,16 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>653</v>
+        <v>8258</v>
       </c>
       <c r="D3">
-        <v>650</v>
+        <v>7500</v>
       </c>
       <c r="E3">
         <v>680400</v>
       </c>
       <c r="F3">
-        <v>680400</v>
+        <v>14288400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,16 +496,16 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>416</v>
+        <v>653</v>
       </c>
       <c r="D4">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="E4">
         <v>680400</v>
       </c>
       <c r="F4">
-        <v>680400</v>
+        <v>14288400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -512,17 +515,17 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="C5">
+        <v>416</v>
+      </c>
+      <c r="D5">
+        <v>350</v>
+      </c>
+      <c r="E5">
+        <v>680400</v>
       </c>
       <c r="F5">
-        <v>680400</v>
+        <v>14288400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -533,16 +536,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>680400</v>
+        <v>14288400</v>
       </c>
     </row>
   </sheetData>
